--- a/data_month/zb/能源/能源主要产品产量/太阳能发电量.xlsx
+++ b/data_month/zb/能源/能源主要产品产量/太阳能发电量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1182 +454,1376 @@
           <t>太阳能发电量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>太阳能发电量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.1</v>
+        <v>24.8</v>
       </c>
       <c r="C2" t="n">
-        <v>30.5083</v>
+        <v>32.8379</v>
       </c>
       <c r="D2" t="n">
-        <v>328.9997</v>
+        <v>140.5702</v>
       </c>
       <c r="E2" t="n">
-        <v>32.2</v>
+        <v>29.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>140.5702</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.6</v>
+        <v>31.3</v>
       </c>
       <c r="C3" t="n">
-        <v>30.2155</v>
+        <v>33.3368</v>
       </c>
       <c r="D3" t="n">
-        <v>358.9256</v>
+        <v>174.8797</v>
       </c>
       <c r="E3" t="n">
-        <v>32.7</v>
+        <v>28.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.30950000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.7</v>
+        <v>21.1</v>
       </c>
       <c r="C4" t="n">
-        <v>29.3758</v>
+        <v>33.1</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6398</v>
+        <v>211</v>
       </c>
       <c r="E4" t="n">
-        <v>33.8</v>
+        <v>27.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36.12029999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="C5" t="n">
-        <v>32.8379</v>
+        <v>36.0163</v>
       </c>
       <c r="D5" t="n">
-        <v>140.5702</v>
+        <v>252.2153</v>
       </c>
       <c r="E5" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41.21530000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.3</v>
+        <v>31.9</v>
       </c>
       <c r="C6" t="n">
-        <v>33.3368</v>
+        <v>33.679</v>
       </c>
       <c r="D6" t="n">
-        <v>174.8797</v>
+        <v>291.9829</v>
       </c>
       <c r="E6" t="n">
-        <v>28.1</v>
+        <v>31.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39.76759999999996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.1</v>
+        <v>17.1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.1</v>
+        <v>30.5083</v>
       </c>
       <c r="D7" t="n">
-        <v>211</v>
+        <v>328.9997</v>
       </c>
       <c r="E7" t="n">
-        <v>27.5</v>
+        <v>32.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>37.01680000000005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.3</v>
+        <v>42.6</v>
       </c>
       <c r="C8" t="n">
-        <v>36.0163</v>
+        <v>30.2155</v>
       </c>
       <c r="D8" t="n">
-        <v>252.2153</v>
+        <v>358.9256</v>
       </c>
       <c r="E8" t="n">
-        <v>28.9</v>
+        <v>32.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.92589999999996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.9</v>
+        <v>35.7</v>
       </c>
       <c r="C9" t="n">
-        <v>33.679</v>
+        <v>29.3758</v>
       </c>
       <c r="D9" t="n">
-        <v>291.9829</v>
+        <v>393.6398</v>
       </c>
       <c r="E9" t="n">
-        <v>31.6</v>
+        <v>33.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>34.71420000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>53.6202</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>533.8033</v>
+        <v>74.83029999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>34.1</v>
+        <v>29.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>74.83029999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.2</v>
+        <v>28.7</v>
       </c>
       <c r="C11" t="n">
-        <v>55.8401</v>
+        <v>48.4662</v>
       </c>
       <c r="D11" t="n">
-        <v>590.573</v>
+        <v>122.833</v>
       </c>
       <c r="E11" t="n">
-        <v>35.5</v>
+        <v>31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>48.0027</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>46.8</v>
+        <v>24.6</v>
       </c>
       <c r="C12" t="n">
-        <v>53.0231</v>
+        <v>50.186</v>
       </c>
       <c r="D12" t="n">
-        <v>647.5186</v>
+        <v>172.9941</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>30.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>50.1611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>54.7444</v>
+      </c>
       <c r="D13" t="n">
-        <v>74.83029999999999</v>
+        <v>227.7483</v>
       </c>
       <c r="E13" t="n">
-        <v>29.6</v>
+        <v>30.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>54.7542</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="C14" t="n">
-        <v>48.4662</v>
+        <v>53.1968</v>
       </c>
       <c r="D14" t="n">
-        <v>122.833</v>
+        <v>288.6882</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>35.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>60.93989999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.6</v>
+        <v>26.7</v>
       </c>
       <c r="C15" t="n">
-        <v>50.186</v>
+        <v>55.6736</v>
       </c>
       <c r="D15" t="n">
-        <v>172.9941</v>
+        <v>352.1046</v>
       </c>
       <c r="E15" t="n">
-        <v>30.7</v>
+        <v>36.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>63.41640000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.9</v>
+        <v>18.7</v>
       </c>
       <c r="C16" t="n">
-        <v>54.7444</v>
+        <v>54.6574</v>
       </c>
       <c r="D16" t="n">
-        <v>227.7483</v>
+        <v>409.1147</v>
       </c>
       <c r="E16" t="n">
-        <v>30.5</v>
+        <v>34</v>
+      </c>
+      <c r="F16" t="n">
+        <v>57.01010000000002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.3</v>
+        <v>25.2</v>
       </c>
       <c r="C17" t="n">
-        <v>53.1968</v>
+        <v>55.5654</v>
       </c>
       <c r="D17" t="n">
-        <v>288.6882</v>
+        <v>469.7014</v>
       </c>
       <c r="E17" t="n">
-        <v>35.1</v>
+        <v>31.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>60.58669999999995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.7</v>
+        <v>35.7</v>
       </c>
       <c r="C18" t="n">
-        <v>55.6736</v>
+        <v>53.6202</v>
       </c>
       <c r="D18" t="n">
-        <v>352.1046</v>
+        <v>533.8033</v>
       </c>
       <c r="E18" t="n">
-        <v>36.3</v>
+        <v>34.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>64.10190000000006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.7</v>
+        <v>45.2</v>
       </c>
       <c r="C19" t="n">
-        <v>54.6574</v>
+        <v>55.8401</v>
       </c>
       <c r="D19" t="n">
-        <v>409.1147</v>
+        <v>590.573</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>35.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>56.76969999999994</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25.2</v>
+        <v>46.8</v>
       </c>
       <c r="C20" t="n">
-        <v>55.5654</v>
+        <v>53.0231</v>
       </c>
       <c r="D20" t="n">
-        <v>469.7014</v>
+        <v>647.5186</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6</v>
+        <v>38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>56.94560000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>79.5087</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>746.67</v>
+        <v>131.3808</v>
       </c>
       <c r="E21" t="n">
-        <v>17.2</v>
+        <v>36</v>
+      </c>
+      <c r="F21" t="n">
+        <v>131.3808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.5</v>
+        <v>27.9</v>
       </c>
       <c r="C22" t="n">
-        <v>70.52800000000001</v>
+        <v>77.96420000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>830.2023</v>
+        <v>198.7564</v>
       </c>
       <c r="E22" t="n">
-        <v>17.6</v>
+        <v>33.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>67.37560000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.2</v>
+        <v>26.4</v>
       </c>
       <c r="C23" t="n">
-        <v>62.3791</v>
+        <v>77.0157</v>
       </c>
       <c r="D23" t="n">
-        <v>894.4556</v>
+        <v>267.9235</v>
       </c>
       <c r="E23" t="n">
-        <v>19.6</v>
+        <v>29.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>69.16709999999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>77.4819</v>
+      </c>
       <c r="D24" t="n">
-        <v>131.3808</v>
+        <v>346.5996</v>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>26.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>78.67610000000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.9</v>
+        <v>21.1</v>
       </c>
       <c r="C25" t="n">
-        <v>77.96420000000001</v>
+        <v>79.1666</v>
       </c>
       <c r="D25" t="n">
-        <v>198.7564</v>
+        <v>427.1836</v>
       </c>
       <c r="E25" t="n">
-        <v>33.5</v>
+        <v>24.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>80.584</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26.4</v>
+        <v>10.9</v>
       </c>
       <c r="C26" t="n">
-        <v>77.0157</v>
+        <v>77.1752</v>
       </c>
       <c r="D26" t="n">
-        <v>267.9235</v>
+        <v>503.5488</v>
       </c>
       <c r="E26" t="n">
-        <v>29.2</v>
+        <v>20</v>
+      </c>
+      <c r="F26" t="n">
+        <v>76.36520000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.8</v>
+        <v>12.2</v>
       </c>
       <c r="C27" t="n">
-        <v>77.4819</v>
+        <v>75.17359999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>346.5996</v>
+        <v>574.6792</v>
       </c>
       <c r="E27" t="n">
-        <v>26.3</v>
+        <v>19.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>71.13040000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.1</v>
+        <v>2.9</v>
       </c>
       <c r="C28" t="n">
-        <v>79.1666</v>
+        <v>71.0428</v>
       </c>
       <c r="D28" t="n">
-        <v>427.1836</v>
+        <v>660.8652</v>
       </c>
       <c r="E28" t="n">
-        <v>24.5</v>
+        <v>17.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>86.18599999999992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.9</v>
+        <v>18.8</v>
       </c>
       <c r="C29" t="n">
-        <v>77.1752</v>
+        <v>79.5087</v>
       </c>
       <c r="D29" t="n">
-        <v>503.5488</v>
+        <v>746.67</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>17.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>85.8048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12.2</v>
+        <v>2.5</v>
       </c>
       <c r="C30" t="n">
-        <v>75.17359999999999</v>
+        <v>70.52800000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>574.6792</v>
+        <v>830.2023</v>
       </c>
       <c r="E30" t="n">
-        <v>19.1</v>
+        <v>17.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>83.53230000000008</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="C31" t="n">
-        <v>71.0428</v>
+        <v>62.3791</v>
       </c>
       <c r="D31" t="n">
-        <v>660.8652</v>
+        <v>894.4556</v>
       </c>
       <c r="E31" t="n">
-        <v>17.9</v>
+        <v>19.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>64.25329999999997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>96.6348</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>1004.7178</v>
+        <v>147.488</v>
       </c>
       <c r="E32" t="n">
-        <v>14.4</v>
+        <v>3.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>147.488</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.7</v>
+        <v>12.9</v>
       </c>
       <c r="C33" t="n">
-        <v>84.86879999999999</v>
+        <v>101.2584</v>
       </c>
       <c r="D33" t="n">
-        <v>1092.1267</v>
+        <v>244.0287</v>
       </c>
       <c r="E33" t="n">
-        <v>13.3</v>
+        <v>8.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96.54069999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.2</v>
+        <v>13.4</v>
       </c>
       <c r="C34" t="n">
-        <v>84.5604</v>
+        <v>104.0014</v>
       </c>
       <c r="D34" t="n">
-        <v>1172.156</v>
+        <v>349.5437</v>
       </c>
       <c r="E34" t="n">
-        <v>13.3</v>
+        <v>10.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>105.515</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>108.0983</v>
+      </c>
       <c r="D35" t="n">
-        <v>147.488</v>
+        <v>461.3672</v>
       </c>
       <c r="E35" t="n">
-        <v>3.8</v>
+        <v>11.9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>111.8235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.9</v>
+        <v>7.4</v>
       </c>
       <c r="C36" t="n">
-        <v>101.2584</v>
+        <v>102.917</v>
       </c>
       <c r="D36" t="n">
-        <v>244.0287</v>
+        <v>568.1953</v>
       </c>
       <c r="E36" t="n">
-        <v>8.6</v>
+        <v>11.2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>106.8280999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="C37" t="n">
-        <v>104.0014</v>
+        <v>107.2247</v>
       </c>
       <c r="D37" t="n">
-        <v>349.5437</v>
+        <v>676.0477</v>
       </c>
       <c r="E37" t="n">
-        <v>10.8</v>
+        <v>12.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>107.8524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.5</v>
+        <v>13.9</v>
       </c>
       <c r="C38" t="n">
-        <v>108.0983</v>
+        <v>108.6874</v>
       </c>
       <c r="D38" t="n">
-        <v>461.3672</v>
+        <v>785.0462</v>
       </c>
       <c r="E38" t="n">
-        <v>11.9</v>
+        <v>12.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>108.9985</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.4</v>
+        <v>19.4</v>
       </c>
       <c r="C39" t="n">
-        <v>102.917</v>
+        <v>107.821</v>
       </c>
       <c r="D39" t="n">
-        <v>568.1953</v>
+        <v>904.6969</v>
       </c>
       <c r="E39" t="n">
-        <v>11.2</v>
+        <v>15.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>119.6507</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>107.2247</v>
+        <v>96.6348</v>
       </c>
       <c r="D40" t="n">
-        <v>676.0477</v>
+        <v>1004.7178</v>
       </c>
       <c r="E40" t="n">
-        <v>12.1</v>
+        <v>14.4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100.0209</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.9</v>
+        <v>2.7</v>
       </c>
       <c r="C41" t="n">
-        <v>108.6874</v>
+        <v>84.86879999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>785.0462</v>
+        <v>1092.1267</v>
       </c>
       <c r="E41" t="n">
-        <v>12.9</v>
+        <v>13.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>87.40890000000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.4</v>
+        <v>15.2</v>
       </c>
       <c r="C42" t="n">
-        <v>107.821</v>
+        <v>84.5604</v>
       </c>
       <c r="D42" t="n">
-        <v>904.6969</v>
+        <v>1172.156</v>
       </c>
       <c r="E42" t="n">
-        <v>15.5</v>
+        <v>13.3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>80.02929999999992</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>116.1251</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>1195.8592</v>
+        <v>179.1855</v>
       </c>
       <c r="E43" t="n">
-        <v>7.9</v>
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>179.1855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="C44" t="n">
-        <v>100.1703</v>
+        <v>128.8806</v>
       </c>
       <c r="D44" t="n">
-        <v>1307.6131</v>
+        <v>310.1063</v>
       </c>
       <c r="E44" t="n">
-        <v>8.1</v>
+        <v>10.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>130.9208</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.9</v>
+        <v>12.3</v>
       </c>
       <c r="C45" t="n">
-        <v>104.3081</v>
+        <v>134.7507</v>
       </c>
       <c r="D45" t="n">
-        <v>1420.9864</v>
+        <v>440.528</v>
       </c>
       <c r="E45" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>130.4217</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>132.7857</v>
+      </c>
       <c r="D46" t="n">
-        <v>179.1855</v>
+        <v>573.1648</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>132.6368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="C47" t="n">
-        <v>128.8806</v>
+        <v>124.1478</v>
       </c>
       <c r="D47" t="n">
-        <v>310.1063</v>
+        <v>699.9158</v>
       </c>
       <c r="E47" t="n">
-        <v>10.9</v>
+        <v>9.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>126.751</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12.3</v>
+        <v>-0.6</v>
       </c>
       <c r="C48" t="n">
-        <v>134.7507</v>
+        <v>121.5906</v>
       </c>
       <c r="D48" t="n">
-        <v>440.528</v>
+        <v>820.5975</v>
       </c>
       <c r="E48" t="n">
-        <v>10.1</v>
+        <v>7.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>120.6817</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="C49" t="n">
-        <v>132.7857</v>
+        <v>125.7875</v>
       </c>
       <c r="D49" t="n">
-        <v>573.1648</v>
+        <v>947.3339</v>
       </c>
       <c r="E49" t="n">
-        <v>9.300000000000001</v>
+        <v>7.4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>126.7364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>124.1478</v>
+        <v>121.2203</v>
       </c>
       <c r="D50" t="n">
-        <v>699.9158</v>
+        <v>1070.5855</v>
       </c>
       <c r="E50" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>123.2515999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.6</v>
+        <v>8.1</v>
       </c>
       <c r="C51" t="n">
-        <v>121.5906</v>
+        <v>116.1251</v>
       </c>
       <c r="D51" t="n">
-        <v>820.5975</v>
+        <v>1195.8592</v>
       </c>
       <c r="E51" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>125.2737000000002</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="C52" t="n">
-        <v>125.7875</v>
+        <v>100.1703</v>
       </c>
       <c r="D52" t="n">
-        <v>947.3339</v>
+        <v>1307.6131</v>
       </c>
       <c r="E52" t="n">
-        <v>7.4</v>
+        <v>8.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>111.7538999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="C53" t="n">
-        <v>121.2203</v>
+        <v>104.3081</v>
       </c>
       <c r="D53" t="n">
-        <v>1070.5855</v>
+        <v>1420.9864</v>
       </c>
       <c r="E53" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>113.3733</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C54" t="n">
-        <v>135.8596</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>1516.2591</v>
+        <v>246.6794</v>
       </c>
       <c r="E54" t="n">
-        <v>10.5</v>
+        <v>25.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>246.6794</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>22.7</v>
+        <v>-0.6</v>
       </c>
       <c r="C55" t="n">
-        <v>141.9184</v>
+        <v>140.9905</v>
       </c>
       <c r="D55" t="n">
-        <v>1696.2474</v>
+        <v>387.6966</v>
       </c>
       <c r="E55" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>141.0172</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>18.8</v>
+        <v>-6.4</v>
       </c>
       <c r="C56" t="n">
-        <v>141.8389</v>
+        <v>143.6231</v>
       </c>
       <c r="D56" t="n">
-        <v>1836.6449</v>
+        <v>527.0764</v>
       </c>
       <c r="E56" t="n">
-        <v>14.1</v>
+        <v>7.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>139.3798</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C57" t="n">
+        <v>165.6145</v>
+      </c>
       <c r="D57" t="n">
-        <v>246.6794</v>
+        <v>694.6444</v>
       </c>
       <c r="E57" t="n">
-        <v>25.8</v>
+        <v>7.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>167.568</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.6</v>
+        <v>12.5</v>
       </c>
       <c r="C58" t="n">
-        <v>140.9905</v>
+        <v>160.9517</v>
       </c>
       <c r="D58" t="n">
-        <v>387.6966</v>
+        <v>858.2283</v>
       </c>
       <c r="E58" t="n">
-        <v>14.1</v>
+        <v>9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>163.5839</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-6.4</v>
+        <v>12.1</v>
       </c>
       <c r="C59" t="n">
-        <v>143.6231</v>
+        <v>162.2018</v>
       </c>
       <c r="D59" t="n">
-        <v>527.0764</v>
+        <v>1038.03</v>
       </c>
       <c r="E59" t="n">
-        <v>7.6</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>179.8017</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C60" t="n">
-        <v>165.6145</v>
+        <v>158.8922</v>
       </c>
       <c r="D60" t="n">
-        <v>694.6444</v>
+        <v>1204.2868</v>
       </c>
       <c r="E60" t="n">
-        <v>7.9</v>
+        <v>10.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>166.2568000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="C61" t="n">
-        <v>160.9517</v>
+        <v>148.2591</v>
       </c>
       <c r="D61" t="n">
-        <v>858.2283</v>
+        <v>1362.1939</v>
       </c>
       <c r="E61" t="n">
-        <v>9</v>
+        <v>10.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>157.9070999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12.1</v>
+        <v>0.4</v>
       </c>
       <c r="C62" t="n">
-        <v>162.2018</v>
+        <v>135.8596</v>
       </c>
       <c r="D62" t="n">
-        <v>1038.03</v>
+        <v>1516.2591</v>
       </c>
       <c r="E62" t="n">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>154.0652</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>8.5</v>
+        <v>22.7</v>
       </c>
       <c r="C63" t="n">
-        <v>158.8922</v>
+        <v>141.9184</v>
       </c>
       <c r="D63" t="n">
-        <v>1204.2868</v>
+        <v>1696.2474</v>
       </c>
       <c r="E63" t="n">
-        <v>10.3</v>
+        <v>13.9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>179.9883</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.5</v>
+        <v>18.8</v>
       </c>
       <c r="C64" t="n">
-        <v>148.2591</v>
+        <v>141.8389</v>
       </c>
       <c r="D64" t="n">
-        <v>1362.1939</v>
+        <v>1836.6449</v>
       </c>
       <c r="E64" t="n">
-        <v>10.2</v>
+        <v>14.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>140.3975</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/能源/能源主要产品产量/太阳能发电量.xlsx
+++ b/data_month/zb/能源/能源主要产品产量/太阳能发电量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1376 +454,1478 @@
           <t>太阳能发电量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>太阳能发电量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.8</v>
+        <v>17.1</v>
       </c>
       <c r="C2" t="n">
-        <v>32.8379</v>
+        <v>30.5083</v>
       </c>
       <c r="D2" t="n">
-        <v>140.5702</v>
+        <v>328.9997</v>
       </c>
       <c r="E2" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>140.5702</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.3</v>
+        <v>42.6</v>
       </c>
       <c r="C3" t="n">
-        <v>33.3368</v>
+        <v>30.2155</v>
       </c>
       <c r="D3" t="n">
-        <v>174.8797</v>
+        <v>358.9256</v>
       </c>
       <c r="E3" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34.30950000000001</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.1</v>
+        <v>35.7</v>
       </c>
       <c r="C4" t="n">
-        <v>33.1</v>
+        <v>29.3758</v>
       </c>
       <c r="D4" t="n">
-        <v>211</v>
+        <v>393.6398</v>
       </c>
       <c r="E4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.12029999999999</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="C5" t="n">
-        <v>36.0163</v>
+        <v>32.8379</v>
       </c>
       <c r="D5" t="n">
-        <v>252.2153</v>
+        <v>140.5702</v>
       </c>
       <c r="E5" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>41.21530000000001</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.9</v>
+        <v>31.3</v>
       </c>
       <c r="C6" t="n">
-        <v>33.679</v>
+        <v>33.3368</v>
       </c>
       <c r="D6" t="n">
-        <v>291.9829</v>
+        <v>174.8797</v>
       </c>
       <c r="E6" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>39.76759999999996</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.1</v>
+        <v>21.1</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5083</v>
+        <v>33.1</v>
       </c>
       <c r="D7" t="n">
-        <v>328.9997</v>
+        <v>211</v>
       </c>
       <c r="E7" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>37.01680000000005</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.6</v>
+        <v>24.3</v>
       </c>
       <c r="C8" t="n">
-        <v>30.2155</v>
+        <v>36.0163</v>
       </c>
       <c r="D8" t="n">
-        <v>358.9256</v>
+        <v>252.2153</v>
       </c>
       <c r="E8" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29.92589999999996</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.7</v>
+        <v>31.9</v>
       </c>
       <c r="C9" t="n">
-        <v>29.3758</v>
+        <v>33.679</v>
       </c>
       <c r="D9" t="n">
-        <v>393.6398</v>
+        <v>291.9829</v>
       </c>
       <c r="E9" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>34.71420000000001</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>53.6202</v>
+      </c>
       <c r="D10" t="n">
-        <v>74.83029999999999</v>
+        <v>533.8033</v>
       </c>
       <c r="E10" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>74.83029999999999</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.7</v>
+        <v>45.2</v>
       </c>
       <c r="C11" t="n">
-        <v>48.4662</v>
+        <v>55.8401</v>
       </c>
       <c r="D11" t="n">
-        <v>122.833</v>
+        <v>590.573</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
-      </c>
-      <c r="F11" t="n">
-        <v>48.0027</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.6</v>
+        <v>46.8</v>
       </c>
       <c r="C12" t="n">
-        <v>50.186</v>
+        <v>53.0231</v>
       </c>
       <c r="D12" t="n">
-        <v>172.9941</v>
+        <v>647.5186</v>
       </c>
       <c r="E12" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>50.1611</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>54.7444</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>227.7483</v>
+        <v>74.83029999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>54.7542</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="C14" t="n">
-        <v>53.1968</v>
+        <v>48.4662</v>
       </c>
       <c r="D14" t="n">
-        <v>288.6882</v>
+        <v>122.833</v>
       </c>
       <c r="E14" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>60.93989999999999</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.7</v>
+        <v>24.6</v>
       </c>
       <c r="C15" t="n">
-        <v>55.6736</v>
+        <v>50.186</v>
       </c>
       <c r="D15" t="n">
-        <v>352.1046</v>
+        <v>172.9941</v>
       </c>
       <c r="E15" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>63.41640000000001</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.7</v>
+        <v>30.9</v>
       </c>
       <c r="C16" t="n">
-        <v>54.6574</v>
+        <v>54.7444</v>
       </c>
       <c r="D16" t="n">
-        <v>409.1147</v>
+        <v>227.7483</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
-      </c>
-      <c r="F16" t="n">
-        <v>57.01010000000002</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.2</v>
+        <v>29.3</v>
       </c>
       <c r="C17" t="n">
-        <v>55.5654</v>
+        <v>53.1968</v>
       </c>
       <c r="D17" t="n">
-        <v>469.7014</v>
+        <v>288.6882</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>60.58669999999995</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35.7</v>
+        <v>26.7</v>
       </c>
       <c r="C18" t="n">
-        <v>53.6202</v>
+        <v>55.6736</v>
       </c>
       <c r="D18" t="n">
-        <v>533.8033</v>
+        <v>352.1046</v>
       </c>
       <c r="E18" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>64.10190000000006</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.2</v>
+        <v>18.7</v>
       </c>
       <c r="C19" t="n">
-        <v>55.8401</v>
+        <v>54.6574</v>
       </c>
       <c r="D19" t="n">
-        <v>590.573</v>
+        <v>409.1147</v>
       </c>
       <c r="E19" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>56.76969999999994</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.8</v>
+        <v>25.2</v>
       </c>
       <c r="C20" t="n">
-        <v>53.0231</v>
+        <v>55.5654</v>
       </c>
       <c r="D20" t="n">
-        <v>647.5186</v>
+        <v>469.7014</v>
       </c>
       <c r="E20" t="n">
-        <v>38</v>
-      </c>
-      <c r="F20" t="n">
-        <v>56.94560000000001</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>79.5087</v>
+      </c>
       <c r="D21" t="n">
-        <v>131.3808</v>
+        <v>746.67</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
-      </c>
-      <c r="F21" t="n">
-        <v>131.3808</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.9</v>
+        <v>2.5</v>
       </c>
       <c r="C22" t="n">
-        <v>77.96420000000001</v>
+        <v>70.52800000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>198.7564</v>
+        <v>830.2023</v>
       </c>
       <c r="E22" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>67.37560000000002</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26.4</v>
+        <v>2.2</v>
       </c>
       <c r="C23" t="n">
-        <v>77.0157</v>
+        <v>62.3791</v>
       </c>
       <c r="D23" t="n">
-        <v>267.9235</v>
+        <v>894.4556</v>
       </c>
       <c r="E23" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>69.16709999999998</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>77.4819</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>346.5996</v>
+        <v>131.3808</v>
       </c>
       <c r="E24" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>78.67610000000002</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.1</v>
+        <v>27.9</v>
       </c>
       <c r="C25" t="n">
-        <v>79.1666</v>
+        <v>77.96420000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>427.1836</v>
+        <v>198.7564</v>
       </c>
       <c r="E25" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>80.584</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.9</v>
+        <v>26.4</v>
       </c>
       <c r="C26" t="n">
-        <v>77.1752</v>
+        <v>77.0157</v>
       </c>
       <c r="D26" t="n">
-        <v>503.5488</v>
+        <v>267.9235</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" t="n">
-        <v>76.36520000000002</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.2</v>
+        <v>14.8</v>
       </c>
       <c r="C27" t="n">
-        <v>75.17359999999999</v>
+        <v>77.4819</v>
       </c>
       <c r="D27" t="n">
-        <v>574.6792</v>
+        <v>346.5996</v>
       </c>
       <c r="E27" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>71.13040000000001</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.9</v>
+        <v>21.1</v>
       </c>
       <c r="C28" t="n">
-        <v>71.0428</v>
+        <v>79.1666</v>
       </c>
       <c r="D28" t="n">
-        <v>660.8652</v>
+        <v>427.1836</v>
       </c>
       <c r="E28" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>86.18599999999992</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.8</v>
+        <v>10.9</v>
       </c>
       <c r="C29" t="n">
-        <v>79.5087</v>
+        <v>77.1752</v>
       </c>
       <c r="D29" t="n">
-        <v>746.67</v>
+        <v>503.5488</v>
       </c>
       <c r="E29" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>85.8048</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.5</v>
+        <v>12.2</v>
       </c>
       <c r="C30" t="n">
-        <v>70.52800000000001</v>
+        <v>75.17359999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>830.2023</v>
+        <v>574.6792</v>
       </c>
       <c r="E30" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>83.53230000000008</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="C31" t="n">
-        <v>62.3791</v>
+        <v>71.0428</v>
       </c>
       <c r="D31" t="n">
-        <v>894.4556</v>
+        <v>660.8652</v>
       </c>
       <c r="E31" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>64.25329999999997</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>96.6348</v>
+      </c>
       <c r="D32" t="n">
-        <v>147.488</v>
+        <v>1004.7178</v>
       </c>
       <c r="E32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>147.488</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.9</v>
+        <v>2.7</v>
       </c>
       <c r="C33" t="n">
-        <v>101.2584</v>
+        <v>84.86879999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>244.0287</v>
+        <v>1092.1267</v>
       </c>
       <c r="E33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>96.54069999999999</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.4</v>
+        <v>15.2</v>
       </c>
       <c r="C34" t="n">
-        <v>104.0014</v>
+        <v>84.5604</v>
       </c>
       <c r="D34" t="n">
-        <v>349.5437</v>
+        <v>1172.156</v>
       </c>
       <c r="E34" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>105.515</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>108.0983</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>461.3672</v>
+        <v>147.488</v>
       </c>
       <c r="E35" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F35" t="n">
-        <v>111.8235</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.4</v>
+        <v>12.9</v>
       </c>
       <c r="C36" t="n">
-        <v>102.917</v>
+        <v>101.2584</v>
       </c>
       <c r="D36" t="n">
-        <v>568.1953</v>
+        <v>244.0287</v>
       </c>
       <c r="E36" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>106.8280999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C37" t="n">
-        <v>107.2247</v>
+        <v>104.0014</v>
       </c>
       <c r="D37" t="n">
-        <v>676.0477</v>
+        <v>349.5437</v>
       </c>
       <c r="E37" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>107.8524</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.9</v>
+        <v>15.5</v>
       </c>
       <c r="C38" t="n">
-        <v>108.6874</v>
+        <v>108.0983</v>
       </c>
       <c r="D38" t="n">
-        <v>785.0462</v>
+        <v>461.3672</v>
       </c>
       <c r="E38" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F38" t="n">
-        <v>108.9985</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.4</v>
+        <v>7.4</v>
       </c>
       <c r="C39" t="n">
-        <v>107.821</v>
+        <v>102.917</v>
       </c>
       <c r="D39" t="n">
-        <v>904.6969</v>
+        <v>568.1953</v>
       </c>
       <c r="E39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F39" t="n">
-        <v>119.6507</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="C40" t="n">
-        <v>96.6348</v>
+        <v>107.2247</v>
       </c>
       <c r="D40" t="n">
-        <v>1004.7178</v>
+        <v>676.0477</v>
       </c>
       <c r="E40" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>100.0209</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.7</v>
+        <v>13.9</v>
       </c>
       <c r="C41" t="n">
-        <v>84.86879999999999</v>
+        <v>108.6874</v>
       </c>
       <c r="D41" t="n">
-        <v>1092.1267</v>
+        <v>785.0462</v>
       </c>
       <c r="E41" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>87.40890000000002</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15.2</v>
+        <v>19.4</v>
       </c>
       <c r="C42" t="n">
-        <v>84.5604</v>
+        <v>107.821</v>
       </c>
       <c r="D42" t="n">
-        <v>1172.156</v>
+        <v>904.6969</v>
       </c>
       <c r="E42" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F42" t="n">
-        <v>80.02929999999992</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>116.1251</v>
+      </c>
       <c r="D43" t="n">
-        <v>179.1855</v>
+        <v>1195.8592</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
-      </c>
-      <c r="F43" t="n">
-        <v>179.1855</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="C44" t="n">
-        <v>128.8806</v>
+        <v>100.1703</v>
       </c>
       <c r="D44" t="n">
-        <v>310.1063</v>
+        <v>1307.6131</v>
       </c>
       <c r="E44" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F44" t="n">
-        <v>130.9208</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12.3</v>
+        <v>8.9</v>
       </c>
       <c r="C45" t="n">
-        <v>134.7507</v>
+        <v>104.3081</v>
       </c>
       <c r="D45" t="n">
-        <v>440.528</v>
+        <v>1420.9864</v>
       </c>
       <c r="E45" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>130.4217</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>132.7857</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>573.1648</v>
+        <v>179.1855</v>
       </c>
       <c r="E46" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F46" t="n">
-        <v>132.6368</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="C47" t="n">
-        <v>124.1478</v>
+        <v>128.8806</v>
       </c>
       <c r="D47" t="n">
-        <v>699.9158</v>
+        <v>310.1063</v>
       </c>
       <c r="E47" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>126.751</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.6</v>
+        <v>12.3</v>
       </c>
       <c r="C48" t="n">
-        <v>121.5906</v>
+        <v>134.7507</v>
       </c>
       <c r="D48" t="n">
-        <v>820.5975</v>
+        <v>440.528</v>
       </c>
       <c r="E48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>120.6817</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="C49" t="n">
-        <v>125.7875</v>
+        <v>132.7857</v>
       </c>
       <c r="D49" t="n">
-        <v>947.3339</v>
+        <v>573.1648</v>
       </c>
       <c r="E49" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>126.7364</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="C50" t="n">
-        <v>121.2203</v>
+        <v>124.1478</v>
       </c>
       <c r="D50" t="n">
-        <v>1070.5855</v>
+        <v>699.9158</v>
       </c>
       <c r="E50" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>123.2515999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8.1</v>
+        <v>-0.6</v>
       </c>
       <c r="C51" t="n">
-        <v>116.1251</v>
+        <v>121.5906</v>
       </c>
       <c r="D51" t="n">
-        <v>1195.8592</v>
+        <v>820.5975</v>
       </c>
       <c r="E51" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>125.2737000000002</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="C52" t="n">
-        <v>100.1703</v>
+        <v>125.7875</v>
       </c>
       <c r="D52" t="n">
-        <v>1307.6131</v>
+        <v>947.3339</v>
       </c>
       <c r="E52" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>111.7538999999999</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8.9</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>104.3081</v>
+        <v>121.2203</v>
       </c>
       <c r="D53" t="n">
-        <v>1420.9864</v>
+        <v>1070.5855</v>
       </c>
       <c r="E53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>113.3733</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>135.8596</v>
+      </c>
       <c r="D54" t="n">
-        <v>246.6794</v>
+        <v>1516.2591</v>
       </c>
       <c r="E54" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F54" t="n">
-        <v>246.6794</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.6</v>
+        <v>22.7</v>
       </c>
       <c r="C55" t="n">
-        <v>140.9905</v>
+        <v>141.9184</v>
       </c>
       <c r="D55" t="n">
-        <v>387.6966</v>
+        <v>1696.2474</v>
       </c>
       <c r="E55" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>141.0172</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-6.4</v>
+        <v>18.8</v>
       </c>
       <c r="C56" t="n">
-        <v>143.6231</v>
+        <v>141.8389</v>
       </c>
       <c r="D56" t="n">
-        <v>527.0764</v>
+        <v>1836.6449</v>
       </c>
       <c r="E56" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>139.3798</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="C57" t="n">
-        <v>165.6145</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>694.6444</v>
+        <v>246.6794</v>
       </c>
       <c r="E57" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F57" t="n">
-        <v>167.568</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12.5</v>
+        <v>-0.6</v>
       </c>
       <c r="C58" t="n">
-        <v>160.9517</v>
+        <v>140.9905</v>
       </c>
       <c r="D58" t="n">
-        <v>858.2283</v>
+        <v>387.6966</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
-      </c>
-      <c r="F58" t="n">
-        <v>163.5839</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>12.1</v>
+        <v>-6.4</v>
       </c>
       <c r="C59" t="n">
-        <v>162.2018</v>
+        <v>143.6231</v>
       </c>
       <c r="D59" t="n">
-        <v>1038.03</v>
+        <v>527.0764</v>
       </c>
       <c r="E59" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F59" t="n">
-        <v>179.8017</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>158.8922</v>
+        <v>165.6145</v>
       </c>
       <c r="D60" t="n">
-        <v>1204.2868</v>
+        <v>694.6444</v>
       </c>
       <c r="E60" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>166.2568000000001</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="C61" t="n">
-        <v>148.2591</v>
+        <v>160.9517</v>
       </c>
       <c r="D61" t="n">
-        <v>1362.1939</v>
+        <v>858.2283</v>
       </c>
       <c r="E61" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>157.9070999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.4</v>
+        <v>12.1</v>
       </c>
       <c r="C62" t="n">
-        <v>135.8596</v>
+        <v>162.2018</v>
       </c>
       <c r="D62" t="n">
-        <v>1516.2591</v>
+        <v>1038.03</v>
       </c>
       <c r="E62" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F62" t="n">
-        <v>154.0652</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>22.7</v>
+        <v>8.5</v>
       </c>
       <c r="C63" t="n">
-        <v>141.9184</v>
+        <v>158.8922</v>
       </c>
       <c r="D63" t="n">
-        <v>1696.2474</v>
+        <v>1204.2868</v>
       </c>
       <c r="E63" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>179.9883</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>18.8</v>
+        <v>4.5</v>
       </c>
       <c r="C64" t="n">
-        <v>141.8389</v>
+        <v>148.2591</v>
       </c>
       <c r="D64" t="n">
-        <v>1836.6449</v>
+        <v>1362.1939</v>
       </c>
       <c r="E64" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>140.3975</v>
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C65" t="n">
+        <v>189.965</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1968.1793</v>
+      </c>
+      <c r="E65" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.0488</v>
+      </c>
+      <c r="C66" t="n">
+        <v>157.5236</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2125.332</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>161.6463</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2289.9955</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>294.7446</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>186.4825</v>
+      </c>
+      <c r="D69" t="n">
+        <v>479.2327</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>205.4837</v>
+      </c>
+      <c r="D70" t="n">
+        <v>683.2379</v>
+      </c>
+      <c r="E70" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C71" t="n">
+        <v>206.6928</v>
+      </c>
+      <c r="D71" t="n">
+        <v>887.1928</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>205.5882</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1107.1274</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>13</v>
+      </c>
+      <c r="C73" t="n">
+        <v>210.8024</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1319.0399</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>206.3579</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1535.6981</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>201.7567</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1749.8777</v>
+      </c>
+      <c r="E75" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>369.5904</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>242.939</v>
+      </c>
+      <c r="D77" t="n">
+        <v>612.3321999999999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>230.8735</v>
+      </c>
+      <c r="D78" t="n">
+        <v>845.599</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>240.5908</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1076.8598</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>259.3309</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1352.7248</v>
+      </c>
+      <c r="E80" t="n">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
